--- a/output.xlsx
+++ b/output.xlsx
@@ -4010,22 +4010,22 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>51, 53</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>51, 52</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
     </row>
@@ -4078,27 +4078,27 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>dabian flatt</t>
+          <t>fabian flatt</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>51, 52</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
     </row>
@@ -4151,27 +4151,27 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fabian fkatt</t>
+          <t>fabian flatt</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>51, 53</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51, 52, 53</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59, 60</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59, 60</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>michel senn</t>
+          <t>michelle senn</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59, 60</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59, 60</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>64, 89</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>jan von de leyen</t>
+          <t>jan vondeleyen</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>jan von de leyen</t>
+          <t>jan vondeleyen</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>elke maria ammann</t>
+          <t>elke ammann</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>maria ammanm</t>
+          <t>maria ammann</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>martin meyer saner</t>
+          <t>martin saner</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>martin meyer saner</t>
+          <t>martin saner</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6377,17 +6377,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84, 85</t>
         </is>
       </c>
     </row>
@@ -6435,12 +6435,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>robert frei  robert</t>
+          <t>robert frei</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6450,17 +6450,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84, 85</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84, 85</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>86, 87</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86, 87</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>johann johann</t>
+          <t>johann seeler</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>64, 89</t>
+          <t>89</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7141,32 +7141,32 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>marco marco de vries</t>
+          <t>marco devries</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>95, 130</t>
+          <t>95, 96, 97, 110, 111, 112</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
     </row>
@@ -7214,32 +7214,32 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>marco de fries</t>
+          <t>marco devries</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>96, 110, 111, 112</t>
+          <t>95, 96, 97, 110, 111, 112</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
     </row>
@@ -7287,32 +7287,32 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>marco vries</t>
+          <t>marco devries</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>97, 218</t>
+          <t>95, 96, 97, 110, 111, 112</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95, 96, 97</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103, 104</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103, 104</t>
         </is>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>96, 110, 111, 112</t>
+          <t>95, 96, 97, 110, 111, 112</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>96, 110, 111, 112</t>
+          <t>95, 96, 97, 110, 111, 112</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>96, 110, 111, 112</t>
+          <t>95, 96, 97, 110, 111, 112</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>115, 116</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>115, 116</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>95, 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>97, 218</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
